--- a/Data/Data description WK.xlsx
+++ b/Data/Data description WK.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LA-ICP-MS\ICP data analysis\Data analysis\Repos\Locality\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0FCAF3-BE69-45A0-B6CB-1FA697C815D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593890FA-BF75-41AB-98DB-D169C085CE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Localities" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="3" r:id="rId2"/>
+    <sheet name="Table_data_summary" sheetId="3" r:id="rId2"/>
     <sheet name="Bones" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -195,7 +195,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -533,9 +533,6 @@
     <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -578,7 +575,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -587,22 +584,25 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="N119" sqref="N119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -928,252 +928,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>35.478266195170441</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>48.057644768266726</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>18.24159316598363</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>19.755757303902332</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <v>21.092621350206489</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <v>29.775165150823351</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="25">
         <v>258.8579210652145</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="26">
         <v>26.590565514693981</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>46.753681558120078</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>53.948189470897127</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <v>12.18026788771188</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>26.86530414191984</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="27">
         <v>35.548117069502823</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="27">
         <v>39.729471565178237</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="27">
         <v>579.81684165111778</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="28">
         <v>36.008417634889511</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>92.959907677854289</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>287.39475966594023</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>9.9724323805514672</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>26.6748554295806</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="27">
         <v>51.214924994324718</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="27">
         <v>76.582116014877357</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="27">
         <v>5035.3760145402748</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="28">
         <v>51.320838100680682</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>48.165423626281907</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>96.039135745484359</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>5.1754721574681852</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>8.5014632675671606</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <v>18.01630848520335</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <v>34.388026758261923</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <v>866.06224673076747</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="28">
         <v>20.945699676403251</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>19.038755599261119</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>10.92149712204608</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>7.2897076680640582</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>8.9937204308764809</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="29">
         <v>10.062250464462791</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="29">
         <v>28.44454570802943</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>43.045168219698411</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="30">
         <v>15.95442519164606</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>89.457265787248957</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>35.48037219638406</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>35.914652513750021</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>47.461925930857028</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>104.0483986603665</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>116.071079019895</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>151.72994838339659</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <v>81.238348834622741</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="1">
@@ -1182,33 +1182,33 @@
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>2447.340702540007</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>7457.4155161098824</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>115.59241873983269</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>298.79467112805281</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>470.983991532049</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <v>813.88378536672508</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="27">
         <v>56892.477883068554</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="28">
         <v>620.36268087059091</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1">
@@ -1217,33 +1217,33 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>723.05869727414938</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>909.58189941415242</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>246.29694308060081</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>426.20764742170678</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <v>534.46278060043051</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <v>787.43379915506057</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <v>17114.43751172283</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="28">
         <v>599.87972990950016</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="1">
@@ -1252,103 +1252,103 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>1101.81957094107</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>2045.2367301920631</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>106.9536300151929</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>553.61346872255353</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>770.65645121229022</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <v>1180.4126490417291</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="27">
         <v>25118.64110623196</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <v>835.37480226324908</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>2</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>55.61519403378162</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>37.692751737844603</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <v>10.699344217968861</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>14.853361012269801</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>80.495691617932707</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>86.94751348658005</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <v>108.1533571550939</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <v>39.769042082506957</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>365.87972901637647</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>1501.555473554489</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>40.798671087789877</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="25">
         <v>51.014152683278212</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <v>59.729228021496063</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="25">
         <v>109.4186005591361</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <v>8023.6974627602676</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="26">
         <v>85.920316512799602</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="1">
@@ -1357,33 +1357,33 @@
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>616.03335711208013</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>2923.0576240266978</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <v>2.2166393539760092</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>47.886458763224169</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>97.44424612790958</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <v>251.40684775643811</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="27">
         <v>51049.010764121544</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="28">
         <v>136.97873846460391</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="1">
@@ -1392,33 +1392,33 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>4685.0067326358694</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>9838.1219001925292</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>47.279005337387993</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <v>177.17357676719911</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="27">
         <v>655.65813926309818</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="27">
         <v>5085.6586817441421</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="27">
         <v>79635.557184527162</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="28">
         <v>901.74164474799591</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="1">
@@ -1427,103 +1427,103 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>3252.2993122984531</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>7727.7427227685639</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <v>23.11273165855625</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <v>99.020719173705317</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <v>269.96008724855642</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="27">
         <v>2273.1059348396998</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="27">
         <v>66954.771005383838</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="28">
         <v>480.01072543790428</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>133.62084695486789</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <v>78.859306066949628</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <v>72.20901731478213</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="29">
         <v>81.796793378772847</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="29">
         <v>134.58500060076221</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="29">
         <v>149.3530297615259</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="29">
         <v>596.29167841746289</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="30">
         <v>120.9059632386539</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>4</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>5.190817577524049</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>3.8645729042619612</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>2.116786809013429</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>2.4659609414445911</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>2.799571141002096</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <v>7.535532894197674</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <v>19.84786630555616</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="26">
         <v>4.2162750636350346</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="1">
@@ -1532,33 +1532,33 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>5.8790559371329643</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>16.370648190597301</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>4.6744081724303402E-2</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <v>1.0251985048925469</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <v>1.82957334933156</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <v>3.4942138415724289</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="27">
         <v>288.50599646068412</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="28">
         <v>2.230803403076238</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="1">
@@ -1567,33 +1567,33 @@
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>10.474117939152739</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>19.089261508109001</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <v>0.44932845147225331</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <v>1.9689799482445369</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="27">
         <v>3.9448479536862879</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="27">
         <v>10.19200328110677</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="27">
         <v>172.68018414185761</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="28">
         <v>4.6558614506560501</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1">
@@ -1602,103 +1602,103 @@
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>5.9790656408312461</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>16.149899297648791</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <v>0.4291983990290047</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>1.6387194888800429</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>3.0791800336880168</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <v>6.0713534616986031</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="27">
         <v>167.2345768311892</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="28">
         <v>3.0617044695644768</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>4</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>1.7570153769731429</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="24">
         <v>0.80775294748896365</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <v>0.53421185722267384</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="29">
         <v>1.188428251922182</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="29">
         <v>1.6292670438166279</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="29">
         <v>2.2171277829679821</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="29">
         <v>4.0245144386001499</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="30">
         <v>1.5877283952077059</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>5</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>55.580088791173587</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>16.278046441528598</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <v>31.288865268083331</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="25">
         <v>41.933649771868893</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <v>55.732337114121208</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="25">
         <v>64.474381254886907</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="25">
         <v>99.495053589711262</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="26">
         <v>53.335280730142493</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="1">
@@ -1707,33 +1707,33 @@
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>32.275556321632081</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>19.558914888357041</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>1.288621654150375</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <v>20.583740585785289</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="27">
         <v>30.714524724973568</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="27">
         <v>40.269967329683283</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="27">
         <v>282.51976905227963</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="28">
         <v>27.509069073182062</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="1">
@@ -1742,33 +1742,33 @@
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>36.09065159680847</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>18.681113897923598</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>10.32110913310593</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>26.149598549638039</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="27">
         <v>32.910149173205554</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="27">
         <v>42.309665414481103</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="27">
         <v>304.0640993216976</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="28">
         <v>33.436815953490822</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="1">
@@ -1777,103 +1777,103 @@
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>34.41446852612949</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>31.147453732789899</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>11.52088241130522</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="27">
         <v>23.351943592468011</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="27">
         <v>28.768767053851288</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="27">
         <v>37.025622138416892</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="27">
         <v>324.32455582555349</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="28">
         <v>30.010290545725461</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>5</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>85.944600642431055</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="24">
         <v>28.48046983299206</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="29">
         <v>51.027847791340577</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="29">
         <v>57.477626313003569</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="29">
         <v>80.176119934134675</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="29">
         <v>111.5793935813563</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="29">
         <v>144.03211664077321</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="30">
         <v>81.347516815011147</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>6</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>71.324123808925251</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>13.579174154655631</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="25">
         <v>56.388328327686473</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="25">
         <v>63.437870947128367</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="25">
         <v>66.491304343677399</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="25">
         <v>74.628220632629024</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="25">
         <v>127.72080707462899</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="26">
         <v>70.343645045044681</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="1">
@@ -1882,33 +1882,33 @@
       <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>3.8632481371990268</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>7.9535519562656134</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>0.1149902531403442</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="27">
         <v>0.3971350689058365</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="27">
         <v>1.051101336621713</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="27">
         <v>2.7108544380265851</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="27">
         <v>77.097217698756708</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="28">
         <v>1.1626740453857289</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="1">
@@ -1917,33 +1917,33 @@
       <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>4.0353411497139424</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>9.7638854611784076</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>0.146372007799391</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="27">
         <v>0.49743780755762101</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="27">
         <v>0.87945645396131855</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="27">
         <v>2.4260074654827348</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="27">
         <v>70.584159614842449</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="28">
         <v>1.2776368643978819</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="1">
@@ -1952,103 +1952,103 @@
       <c r="C30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>2.3039555131230438</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>3.622647533992859</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="27">
         <v>0.19321408311912941</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <v>0.48488194804560281</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="27">
         <v>0.81579487824959696</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="27">
         <v>2.4378699025700041</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="27">
         <v>21.289860673333418</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="28">
         <v>1.13319917856992</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>6</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="23">
         <v>48.48777381245587</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="24">
         <v>14.556945929755839</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="29">
         <v>30.335004941171331</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="29">
         <v>33.647921238582967</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="29">
         <v>56.390351422280602</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="29">
         <v>62.265795650960207</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="29">
         <v>68.751522641377122</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="30">
         <v>46.260221283557932</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>7</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="19">
         <v>1.030298197129065</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>3.022933713385227</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="25">
         <v>0.36021961405826791</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <v>0.40430203393175718</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="25">
         <v>0.44761945733001229</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="25">
         <v>0.49168125332427298</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="25">
         <v>16.450290347807499</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K32" s="26">
         <v>0.51580934604985351</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="1">
@@ -2057,33 +2057,33 @@
       <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>9.829786588565291E-2</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>0.1451823560127892</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="27">
         <v>2.537980793229117E-13</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="27">
         <v>2.4314132649757101E-2</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="27">
         <v>4.73598015831578E-2</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="27">
         <v>9.4973051261023497E-2</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="27">
         <v>1.4965189424922509</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="28">
         <v>4.1682146423871358E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="1">
@@ -2092,33 +2092,33 @@
       <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>0.13455313159051621</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>0.18209832850145841</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="27">
         <v>2.537980793229117E-13</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="27">
         <v>2.4497423500105302E-2</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="27">
         <v>8.2500806160899345E-2</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="27">
         <v>0.1539924348878966</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J34" s="27">
         <v>1.171942433764352</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="28">
         <v>3.6637450209507531E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="1">
@@ -2127,103 +2127,103 @@
       <c r="C35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>0.69301213614651558</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>4.6247506098979434</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="27">
         <v>2.537980793229117E-13</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="27">
         <v>4.1476894466307417E-2</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="27">
         <v>7.0213669964778791E-2</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="27">
         <v>9.9489032021622542E-2</v>
       </c>
-      <c r="J35" s="28">
+      <c r="J35" s="27">
         <v>41.784184375659777</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="28">
         <v>4.4145615915064773E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>7</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="23">
         <v>0.84091795191774865</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="24">
         <v>8.7633472648702762E-2</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="29">
         <v>0.68184085338656875</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="29">
         <v>0.75737068913037242</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="29">
         <v>0.83393270283732146</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="29">
         <v>0.91486817025780298</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="29">
         <v>1.022058702854941</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K36" s="30">
         <v>0.8364594811338435</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>8</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="19">
         <v>2188.29032331998</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>101.4592277158431</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="25">
         <v>1842.2007172154699</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="25">
         <v>2153.7152601891539</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="25">
         <v>2200.045133678062</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="25">
         <v>2237.4218922923119</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="25">
         <v>2374.293831893297</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K37" s="26">
         <v>2185.921477798131</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1">
@@ -2232,33 +2232,33 @@
       <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>2671.3972114043572</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>380.28073947328119</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="27">
         <v>1483.5628856812759</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="27">
         <v>2537.2650605823228</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="27">
         <v>2721.564856408836</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="27">
         <v>2862.4280216028451</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J38" s="27">
         <v>5583.1190147679526</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="28">
         <v>2643.9452262767768</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1">
@@ -2267,33 +2267,33 @@
       <c r="C39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>2584.0693723877821</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>421.44554922303831</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="27">
         <v>1560.1548969673629</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="27">
         <v>2231.2822008691678</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="27">
         <v>2633.319653566999</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="27">
         <v>2824.0942367394</v>
       </c>
-      <c r="J39" s="28">
+      <c r="J39" s="27">
         <v>4584.1430101983251</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="28">
         <v>2551.240057205312</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1">
@@ -2302,103 +2302,103 @@
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>2248.059954817792</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>337.39213391460783</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="27">
         <v>712.23016097640186</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="27">
         <v>2088.5232429518069</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="27">
         <v>2211.8271626989831</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="27">
         <v>2391.707657756981</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="27">
         <v>3095.8153235438799</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="28">
         <v>2219.1567474997528</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>8</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="23">
         <v>3312.7114420410448</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="24">
         <v>296.1696531760918</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="29">
         <v>2834.2410805676091</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="29">
         <v>3020.3542526594342</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="29">
         <v>3463.3081815421201</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="29">
         <v>3573.0458033976602</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="29">
         <v>3709.4309833762732</v>
       </c>
-      <c r="K41" s="31">
+      <c r="K41" s="30">
         <v>3299.490859603522</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>9</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="19">
         <v>5023.2304369056374</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <v>730.70514080469229</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="25">
         <v>4001.6381851249998</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="25">
         <v>4371.3057625428128</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="25">
         <v>5062.3352455696349</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I42" s="25">
         <v>5467.9262396291369</v>
       </c>
-      <c r="J42" s="26">
+      <c r="J42" s="25">
         <v>7125.1277283709978</v>
       </c>
-      <c r="K42" s="27">
+      <c r="K42" s="26">
         <v>4974.4539647276033</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="1">
@@ -2407,33 +2407,33 @@
       <c r="C43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>561.43950025771971</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>783.77426269968328</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="27">
         <v>1.529989203387955</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43" s="27">
         <v>52.718236414637417</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43" s="27">
         <v>325.75215218018371</v>
       </c>
-      <c r="I43" s="28">
+      <c r="I43" s="27">
         <v>683.85085381377769</v>
       </c>
-      <c r="J43" s="28">
+      <c r="J43" s="27">
         <v>6197.1128736311612</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="28">
         <v>187.47641852041801</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="1">
@@ -2442,33 +2442,33 @@
       <c r="C44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>610.50169813324567</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="22">
         <v>1035.1984716405359</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="27">
         <v>0.1339330084244888</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="27">
         <v>15.239866508804591</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="27">
         <v>158.82623992218811</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="27">
         <v>689.41204053682111</v>
       </c>
-      <c r="J44" s="28">
+      <c r="J44" s="27">
         <v>5629.5706058180567</v>
       </c>
-      <c r="K44" s="29">
+      <c r="K44" s="28">
         <v>84.41799848761049</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="1">
@@ -2477,103 +2477,103 @@
       <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <v>162.83088633864691</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="22">
         <v>205.04968458041691</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="27">
         <v>1.210688166076755</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="27">
         <v>27.878029134324802</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="27">
         <v>52.427905004279403</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="27">
         <v>282.09378868540671</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="27">
         <v>1002.232144988262</v>
       </c>
-      <c r="K45" s="29">
+      <c r="K45" s="28">
         <v>58.996666776265428</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <v>9</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="23">
         <v>5346.8194972445153</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="24">
         <v>333.96078374948752</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="29">
         <v>4746.7384314119809</v>
       </c>
-      <c r="G46" s="30">
+      <c r="G46" s="29">
         <v>5130.7817281779598</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="29">
         <v>5238.3360807558274</v>
       </c>
-      <c r="I46" s="30">
+      <c r="I46" s="29">
         <v>5637.8407831074637</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J46" s="29">
         <v>6034.0680253005157</v>
       </c>
-      <c r="K46" s="31">
+      <c r="K46" s="30">
         <v>5336.6561942294866</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>10</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="19">
         <v>164.0810938445658</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <v>17.001916658830179</v>
       </c>
-      <c r="F47" s="26">
+      <c r="F47" s="25">
         <v>128.93337534883889</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G47" s="25">
         <v>150.67979774770919</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H47" s="25">
         <v>167.17294616881719</v>
       </c>
-      <c r="I47" s="26">
+      <c r="I47" s="25">
         <v>176.60874233882419</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J47" s="25">
         <v>198.8198176928054</v>
       </c>
-      <c r="K47" s="27">
+      <c r="K47" s="26">
         <v>163.20356228428631</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B48" s="1">
@@ -2582,33 +2582,33 @@
       <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="21">
         <v>234.1652703900416</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="22">
         <v>740.04448152819668</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="27">
         <v>38.794163216436402</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="27">
         <v>106.0253098422104</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H48" s="27">
         <v>117.32263510712021</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="27">
         <v>132.80732692552431</v>
       </c>
-      <c r="J48" s="28">
+      <c r="J48" s="27">
         <v>11081.411725573151</v>
       </c>
-      <c r="K48" s="29">
+      <c r="K48" s="28">
         <v>130.60631961862001</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B49" s="1">
@@ -2617,33 +2617,33 @@
       <c r="C49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <v>98.517937111278556</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <v>42.116836241656337</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="27">
         <v>38.669200183203593</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="27">
         <v>84.425533246184528</v>
       </c>
-      <c r="H49" s="28">
+      <c r="H49" s="27">
         <v>92.553061633449857</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="27">
         <v>106.3494486211635</v>
       </c>
-      <c r="J49" s="28">
+      <c r="J49" s="27">
         <v>858.95499365955197</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K49" s="28">
         <v>95.417035773161942</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="1">
@@ -2652,103 +2652,103 @@
       <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <v>140.9160046868239</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="22">
         <v>708.55547303643118</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="27">
         <v>18.474736064411299</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="27">
         <v>38.669437766279927</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="27">
         <v>44.93187366500424</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="27">
         <v>90.424135399187449</v>
       </c>
-      <c r="J50" s="28">
+      <c r="J50" s="27">
         <v>8660.313094850846</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K50" s="28">
         <v>59.790757115224991</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>10</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="23">
         <v>230.1380282591565</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="24">
         <v>267.00316585998792</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="29">
         <v>46.759717920899739</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="29">
         <v>87.023781608186809</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="29">
         <v>96.504824829267264</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I51" s="29">
         <v>267.689657053784</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="29">
         <v>1436.2022156622079</v>
       </c>
-      <c r="K51" s="31">
+      <c r="K51" s="30">
         <v>161.16335172226789</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>11</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="19">
         <v>3986.5884689452878</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>654.77947796360195</v>
       </c>
-      <c r="F52" s="26">
+      <c r="F52" s="25">
         <v>3148.92310863895</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="25">
         <v>3228.278617663841</v>
       </c>
-      <c r="H52" s="26">
+      <c r="H52" s="25">
         <v>4130.7740655443149</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I52" s="25">
         <v>4414.9194300230138</v>
       </c>
-      <c r="J52" s="26">
+      <c r="J52" s="25">
         <v>5206.4743703872227</v>
       </c>
-      <c r="K52" s="27">
+      <c r="K52" s="26">
         <v>3934.331026737364</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B53" s="1">
@@ -2757,33 +2757,33 @@
       <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="21">
         <v>383.42207134426229</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>696.37529489687563</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="27">
         <v>2.3847200592130001E-4</v>
       </c>
-      <c r="G53" s="28">
+      <c r="G53" s="27">
         <v>1.9838954971281499</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="27">
         <v>69.595709031412625</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="27">
         <v>493.48174172626051</v>
       </c>
-      <c r="J53" s="28">
+      <c r="J53" s="27">
         <v>7504.0329425679793</v>
       </c>
-      <c r="K53" s="29">
+      <c r="K53" s="28">
         <v>32.154136588824002</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B54" s="1">
@@ -2792,33 +2792,33 @@
       <c r="C54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="21">
         <v>215.41159656874279</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="22">
         <v>527.57943829741271</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="27">
         <v>7.9741903711983003E-3</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="27">
         <v>3.9641886421013162</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="27">
         <v>15.393301292697149</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54" s="27">
         <v>148.94390735718801</v>
       </c>
-      <c r="J54" s="28">
+      <c r="J54" s="27">
         <v>3050.094461037409</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K54" s="28">
         <v>17.620420703778219</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B55" s="1">
@@ -2827,103 +2827,103 @@
       <c r="C55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="21">
         <v>149.37059792693481</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="22">
         <v>218.54427602555279</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="27">
         <v>1.23999209949083</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G55" s="27">
         <v>19.184189045836469</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H55" s="27">
         <v>49.355486778335447</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="27">
         <v>189.02652276529781</v>
       </c>
-      <c r="J55" s="28">
+      <c r="J55" s="27">
         <v>1188.4558423544161</v>
       </c>
-      <c r="K55" s="29">
+      <c r="K55" s="28">
         <v>51.735204343435278</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>11</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="23">
         <v>4513.4023466310728</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="24">
         <v>541.05984706206073</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="29">
         <v>3654.8947932538322</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="29">
         <v>4027.811823960305</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="29">
         <v>4634.4829337212823</v>
       </c>
-      <c r="I56" s="30">
+      <c r="I56" s="29">
         <v>4996.6634884623427</v>
       </c>
-      <c r="J56" s="30">
+      <c r="J56" s="29">
         <v>5282.3201296111292</v>
       </c>
-      <c r="K56" s="31">
+      <c r="K56" s="30">
         <v>4481.1295989198106</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>12</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="19">
         <v>3600.666133867473</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="20">
         <v>668.01046628907375</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="25">
         <v>2955.0766121125521</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="25">
         <v>3300.4595884231371</v>
       </c>
-      <c r="H57" s="26">
+      <c r="H57" s="25">
         <v>3481.101267006447</v>
       </c>
-      <c r="I57" s="26">
+      <c r="I57" s="25">
         <v>3634.9359826119139</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J57" s="25">
         <v>6172.4907851406897</v>
       </c>
-      <c r="K57" s="27">
+      <c r="K57" s="26">
         <v>3554.538600575549</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B58" s="1">
@@ -2932,33 +2932,33 @@
       <c r="C58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="21">
         <v>144.37398736123879</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="22">
         <v>398.08158592443579</v>
       </c>
-      <c r="F58" s="28">
+      <c r="F58" s="27">
         <v>1.6849375694007479E-13</v>
       </c>
-      <c r="G58" s="28">
+      <c r="G58" s="27">
         <v>6.3937580531917754E-2</v>
       </c>
-      <c r="H58" s="28">
+      <c r="H58" s="27">
         <v>3.924360863385663</v>
       </c>
-      <c r="I58" s="28">
+      <c r="I58" s="27">
         <v>43.788675331398231</v>
       </c>
-      <c r="J58" s="28">
+      <c r="J58" s="27">
         <v>3768.712451200875</v>
       </c>
-      <c r="K58" s="29">
+      <c r="K58" s="28">
         <v>0.76934796080642653</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B59" s="1">
@@ -2967,33 +2967,33 @@
       <c r="C59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="21">
         <v>211.1218005459308</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="22">
         <v>610.10158056191619</v>
       </c>
-      <c r="F59" s="28">
+      <c r="F59" s="27">
         <v>1.6849375694007479E-13</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G59" s="27">
         <v>0.76728591370621446</v>
       </c>
-      <c r="H59" s="28">
+      <c r="H59" s="27">
         <v>4.6821822757759026</v>
       </c>
-      <c r="I59" s="28">
+      <c r="I59" s="27">
         <v>66.721529337223899</v>
       </c>
-      <c r="J59" s="28">
+      <c r="J59" s="27">
         <v>4294.7218101190456</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K59" s="28">
         <v>3.1111132271274768</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B60" s="1">
@@ -3002,103 +3002,103 @@
       <c r="C60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="21">
         <v>138.81770367287589</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="22">
         <v>346.55943609427288</v>
       </c>
-      <c r="F60" s="28">
+      <c r="F60" s="27">
         <v>1.6625368758580599E-2</v>
       </c>
-      <c r="G60" s="28">
+      <c r="G60" s="27">
         <v>4.5421079550246706</v>
       </c>
-      <c r="H60" s="28">
+      <c r="H60" s="27">
         <v>25.768732521485841</v>
       </c>
-      <c r="I60" s="28">
+      <c r="I60" s="27">
         <v>72.956315771063288</v>
       </c>
-      <c r="J60" s="28">
+      <c r="J60" s="27">
         <v>2419.1821932782291</v>
       </c>
-      <c r="K60" s="29">
+      <c r="K60" s="28">
         <v>16.631103802474669</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <v>12</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D61" s="23">
         <v>57.832973745349967</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="24">
         <v>7.9700205243720994</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="29">
         <v>43.60902408478686</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="29">
         <v>52.827059658022797</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H61" s="29">
         <v>57.254035090874623</v>
       </c>
-      <c r="I61" s="30">
+      <c r="I61" s="29">
         <v>60.888269378973909</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J61" s="29">
         <v>83.799241581991353</v>
       </c>
-      <c r="K61" s="31">
+      <c r="K61" s="30">
         <v>57.323912121785263</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="10">
         <v>13</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="19">
         <v>1225.68381712981</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <v>165.86060313898099</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F62" s="25">
         <v>1001.418759945106</v>
       </c>
-      <c r="G62" s="26">
+      <c r="G62" s="25">
         <v>1152.7342939105399</v>
       </c>
-      <c r="H62" s="26">
+      <c r="H62" s="25">
         <v>1198.2397233332069</v>
       </c>
-      <c r="I62" s="26">
+      <c r="I62" s="25">
         <v>1236.403153818293</v>
       </c>
-      <c r="J62" s="26">
+      <c r="J62" s="25">
         <v>1960.027763907776</v>
       </c>
-      <c r="K62" s="27">
+      <c r="K62" s="26">
         <v>1216.947092464145</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B63" s="1">
@@ -3107,33 +3107,33 @@
       <c r="C63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="21">
         <v>43.610692882923878</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="22">
         <v>104.4990657956657</v>
       </c>
-      <c r="F63" s="28">
+      <c r="F63" s="27">
         <v>4.5553813392883716E-13</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="27">
         <v>2.4879933065386051E-2</v>
       </c>
-      <c r="H63" s="28">
+      <c r="H63" s="27">
         <v>1.5690960426903751</v>
       </c>
-      <c r="I63" s="28">
+      <c r="I63" s="27">
         <v>41.163872790330842</v>
       </c>
-      <c r="J63" s="28">
+      <c r="J63" s="27">
         <v>1309.6970569018761</v>
       </c>
-      <c r="K63" s="29">
+      <c r="K63" s="28">
         <v>0.35187879657761623</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="1">
@@ -3142,33 +3142,33 @@
       <c r="C64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="21">
         <v>28.111555515200418</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="22">
         <v>93.744825111483522</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F64" s="27">
         <v>4.5553813392883716E-13</v>
       </c>
-      <c r="G64" s="28">
+      <c r="G64" s="27">
         <v>3.2953170220159478E-2</v>
       </c>
-      <c r="H64" s="28">
+      <c r="H64" s="27">
         <v>0.36590654508640441</v>
       </c>
-      <c r="I64" s="28">
+      <c r="I64" s="27">
         <v>7.5289612191099202</v>
       </c>
-      <c r="J64" s="28">
+      <c r="J64" s="27">
         <v>704.38005044448403</v>
       </c>
-      <c r="K64" s="29">
+      <c r="K64" s="28">
         <v>3.9802521221169548E-2</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B65" s="1">
@@ -3177,103 +3177,103 @@
       <c r="C65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <v>15.42608356200293</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <v>33.579074537569682</v>
       </c>
-      <c r="F65" s="28">
+      <c r="F65" s="27">
         <v>0.1340975836248729</v>
       </c>
-      <c r="G65" s="28">
+      <c r="G65" s="27">
         <v>1.392704179714364</v>
       </c>
-      <c r="H65" s="28">
+      <c r="H65" s="27">
         <v>3.1255484126915372</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="27">
         <v>12.85708816582664</v>
       </c>
-      <c r="J65" s="28">
+      <c r="J65" s="27">
         <v>235.8301883144033</v>
       </c>
-      <c r="K65" s="29">
+      <c r="K65" s="28">
         <v>3.5411324732981049</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="13">
         <v>13</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D66" s="23">
         <v>865.55782529195233</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E66" s="24">
         <v>253.00147091866711</v>
       </c>
-      <c r="F66" s="30">
+      <c r="F66" s="29">
         <v>552.38153872070131</v>
       </c>
-      <c r="G66" s="30">
+      <c r="G66" s="29">
         <v>612.09826439270387</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H66" s="29">
         <v>1013.840867863633</v>
       </c>
-      <c r="I66" s="30">
+      <c r="I66" s="29">
         <v>1091.105612685589</v>
       </c>
-      <c r="J66" s="30">
+      <c r="J66" s="29">
         <v>1203.7991395882191</v>
       </c>
-      <c r="K66" s="31">
+      <c r="K66" s="30">
         <v>827.90586057996768</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="10">
         <v>14</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="19">
         <v>5079.1234518730616</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="20">
         <v>711.58708415990702</v>
       </c>
-      <c r="F67" s="26">
+      <c r="F67" s="25">
         <v>4119.6924361662022</v>
       </c>
-      <c r="G67" s="26">
+      <c r="G67" s="25">
         <v>4738.1763214712464</v>
       </c>
-      <c r="H67" s="26">
+      <c r="H67" s="25">
         <v>4956.9178296723676</v>
       </c>
-      <c r="I67" s="26">
+      <c r="I67" s="25">
         <v>5201.7105400292166</v>
       </c>
-      <c r="J67" s="26">
+      <c r="J67" s="25">
         <v>8223.5983332834203</v>
       </c>
-      <c r="K67" s="27">
+      <c r="K67" s="26">
         <v>5040.445342507167</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B68" s="1">
@@ -3282,33 +3282,33 @@
       <c r="C68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="21">
         <v>170.9338438087737</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="22">
         <v>403.53593562987368</v>
       </c>
-      <c r="F68" s="28">
+      <c r="F68" s="27">
         <v>8.6551931793086368E-26</v>
       </c>
-      <c r="G68" s="28">
+      <c r="G68" s="27">
         <v>0.1023769079310423</v>
       </c>
-      <c r="H68" s="28">
+      <c r="H68" s="27">
         <v>6.2334455992749556</v>
       </c>
-      <c r="I68" s="28">
+      <c r="I68" s="27">
         <v>162.9749836408464</v>
       </c>
-      <c r="J68" s="28">
+      <c r="J68" s="27">
         <v>4941.2787559767421</v>
       </c>
-      <c r="K68" s="29">
+      <c r="K68" s="28">
         <v>0.1284741191087963</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B69" s="1">
@@ -3317,33 +3317,33 @@
       <c r="C69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="21">
         <v>115.7820153573367</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="22">
         <v>389.10706075450298</v>
       </c>
-      <c r="F69" s="28">
+      <c r="F69" s="27">
         <v>8.6551931793086368E-26</v>
       </c>
-      <c r="G69" s="28">
+      <c r="G69" s="27">
         <v>0.15079838355099379</v>
       </c>
-      <c r="H69" s="28">
+      <c r="H69" s="27">
         <v>1.417552638099596</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="27">
         <v>31.232757248035021</v>
       </c>
-      <c r="J69" s="28">
+      <c r="J69" s="27">
         <v>2955.193859194545</v>
       </c>
-      <c r="K69" s="29">
+      <c r="K69" s="28">
         <v>1.008861629671768E-2</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B70" s="1">
@@ -3352,103 +3352,103 @@
       <c r="C70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="21">
         <v>58.573491043504653</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="22">
         <v>126.8533826084971</v>
       </c>
-      <c r="F70" s="28">
+      <c r="F70" s="27">
         <v>0.48761024044017698</v>
       </c>
-      <c r="G70" s="28">
+      <c r="G70" s="27">
         <v>5.0770097674654746</v>
       </c>
-      <c r="H70" s="28">
+      <c r="H70" s="27">
         <v>11.480676641269509</v>
       </c>
-      <c r="I70" s="28">
+      <c r="I70" s="27">
         <v>47.298413028361942</v>
       </c>
-      <c r="J70" s="28">
+      <c r="J70" s="27">
         <v>893.01544669302291</v>
       </c>
-      <c r="K70" s="29">
+      <c r="K70" s="28">
         <v>13.37199129257815</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="13">
         <v>14</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="23">
         <v>3440.707347430834</v>
       </c>
-      <c r="E71" s="25">
+      <c r="E71" s="24">
         <v>1025.1558492749789</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F71" s="29">
         <v>2140.791885515448</v>
       </c>
-      <c r="G71" s="30">
+      <c r="G71" s="29">
         <v>2413.2036061997678</v>
       </c>
-      <c r="H71" s="30">
+      <c r="H71" s="29">
         <v>4005.838431849299</v>
       </c>
-      <c r="I71" s="30">
+      <c r="I71" s="29">
         <v>4373.1007486160397</v>
       </c>
-      <c r="J71" s="30">
+      <c r="J71" s="29">
         <v>4940.8299839457759</v>
       </c>
-      <c r="K71" s="31">
+      <c r="K71" s="30">
         <v>3285.3545446287112</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="10">
         <v>15</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="19">
         <v>1013.250016527595</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="20">
         <v>152.91333595967819</v>
       </c>
-      <c r="F72" s="26">
+      <c r="F72" s="25">
         <v>807.46935213801885</v>
       </c>
-      <c r="G72" s="26">
+      <c r="G72" s="25">
         <v>941.31227179106168</v>
       </c>
-      <c r="H72" s="26">
+      <c r="H72" s="25">
         <v>979.47898558899647</v>
       </c>
-      <c r="I72" s="26">
+      <c r="I72" s="25">
         <v>1033.0705084241581</v>
       </c>
-      <c r="J72" s="26">
+      <c r="J72" s="25">
         <v>1681.1476165392789</v>
       </c>
-      <c r="K72" s="27">
+      <c r="K72" s="26">
         <v>1004.325426185335</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B73" s="1">
@@ -3457,33 +3457,33 @@
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="21">
         <v>29.081894805900038</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="22">
         <v>68.52820320955162</v>
       </c>
-      <c r="F73" s="28">
+      <c r="F73" s="27">
         <v>2.3887052197041119E-13</v>
       </c>
-      <c r="G73" s="28">
+      <c r="G73" s="27">
         <v>7.3096511015360009E-4</v>
       </c>
-      <c r="H73" s="28">
+      <c r="H73" s="27">
         <v>0.74886490130494232</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="27">
         <v>26.164850439550971</v>
       </c>
-      <c r="J73" s="28">
+      <c r="J73" s="27">
         <v>808.39478446472833</v>
       </c>
-      <c r="K73" s="29">
+      <c r="K73" s="28">
         <v>5.4756326614682653E-2</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B74" s="1">
@@ -3492,33 +3492,33 @@
       <c r="C74" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="21">
         <v>22.033799061442</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="22">
         <v>76.269907384629576</v>
       </c>
-      <c r="F74" s="28">
+      <c r="F74" s="27">
         <v>2.3887052197041119E-13</v>
       </c>
-      <c r="G74" s="28">
+      <c r="G74" s="27">
         <v>1.128532295626625E-3</v>
       </c>
-      <c r="H74" s="28">
+      <c r="H74" s="27">
         <v>0.20446926224744769</v>
       </c>
-      <c r="I74" s="28">
+      <c r="I74" s="27">
         <v>4.9226230283105572</v>
       </c>
-      <c r="J74" s="28">
+      <c r="J74" s="27">
         <v>645.45473868049055</v>
       </c>
-      <c r="K74" s="29">
+      <c r="K74" s="28">
         <v>1.6468268053720419E-3</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B75" s="1">
@@ -3527,103 +3527,103 @@
       <c r="C75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="21">
         <v>9.8067901528168253</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="22">
         <v>22.538356571047778</v>
       </c>
-      <c r="F75" s="28">
+      <c r="F75" s="27">
         <v>7.1600378699892497E-2</v>
       </c>
-      <c r="G75" s="28">
+      <c r="G75" s="27">
         <v>0.69490162427286872</v>
       </c>
-      <c r="H75" s="28">
+      <c r="H75" s="27">
         <v>1.6176738053442461</v>
       </c>
-      <c r="I75" s="28">
+      <c r="I75" s="27">
         <v>7.1453784791734956</v>
       </c>
-      <c r="J75" s="28">
+      <c r="J75" s="27">
         <v>163.21626340801009</v>
       </c>
-      <c r="K75" s="29">
+      <c r="K75" s="28">
         <v>2.0438223758837739</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="13">
         <v>15</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="23">
         <v>616.0085201584119</v>
       </c>
-      <c r="E76" s="25">
+      <c r="E76" s="24">
         <v>206.41174473472631</v>
       </c>
-      <c r="F76" s="30">
+      <c r="F76" s="29">
         <v>360.72125452519322</v>
       </c>
-      <c r="G76" s="30">
+      <c r="G76" s="29">
         <v>406.24874244404231</v>
       </c>
-      <c r="H76" s="30">
+      <c r="H76" s="29">
         <v>739.96696579738716</v>
       </c>
-      <c r="I76" s="30">
+      <c r="I76" s="29">
         <v>819.8733375025663</v>
       </c>
-      <c r="J76" s="30">
+      <c r="J76" s="29">
         <v>882.77456624296713</v>
       </c>
-      <c r="K76" s="31">
+      <c r="K76" s="30">
         <v>580.40130642817576</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="10">
         <v>16</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="19">
         <v>266.58668822173712</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E77" s="20">
         <v>36.055700716760853</v>
       </c>
-      <c r="F77" s="26">
+      <c r="F77" s="25">
         <v>221.30721236867669</v>
       </c>
-      <c r="G77" s="26">
+      <c r="G77" s="25">
         <v>245.79625872753169</v>
       </c>
-      <c r="H77" s="26">
+      <c r="H77" s="25">
         <v>259.71061428183191</v>
       </c>
-      <c r="I77" s="26">
+      <c r="I77" s="25">
         <v>272.55119223975328</v>
       </c>
-      <c r="J77" s="26">
+      <c r="J77" s="25">
         <v>406.97692889278147</v>
       </c>
-      <c r="K77" s="27">
+      <c r="K77" s="26">
         <v>264.57939097504038</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B78" s="1">
@@ -3632,33 +3632,33 @@
       <c r="C78" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D78" s="22">
+      <c r="D78" s="21">
         <v>7.579943676798564</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="22">
         <v>16.550850513351271</v>
       </c>
-      <c r="F78" s="28">
+      <c r="F78" s="27">
         <v>5.998477177869666E-10</v>
       </c>
-      <c r="G78" s="28">
+      <c r="G78" s="27">
         <v>7.0239437480756001E-3</v>
       </c>
-      <c r="H78" s="28">
+      <c r="H78" s="27">
         <v>0.4093344952798193</v>
       </c>
-      <c r="I78" s="28">
+      <c r="I78" s="27">
         <v>7.6727934332901357</v>
       </c>
-      <c r="J78" s="28">
+      <c r="J78" s="27">
         <v>186.18445367533681</v>
       </c>
-      <c r="K78" s="29">
+      <c r="K78" s="28">
         <v>8.9218483625675984E-2</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B79" s="1">
@@ -3667,33 +3667,33 @@
       <c r="C79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="21">
         <v>5.6177201932125023</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="22">
         <v>18.233191745778559</v>
       </c>
-      <c r="F79" s="28">
+      <c r="F79" s="27">
         <v>5.998477177869666E-10</v>
       </c>
-      <c r="G79" s="28">
+      <c r="G79" s="27">
         <v>9.8253780054801503E-3</v>
       </c>
-      <c r="H79" s="28">
+      <c r="H79" s="27">
         <v>8.3865569708674093E-2</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="27">
         <v>1.6155088647500679</v>
       </c>
-      <c r="J79" s="28">
+      <c r="J79" s="27">
         <v>148.15273565923141</v>
       </c>
-      <c r="K79" s="29">
+      <c r="K79" s="28">
         <v>2.1699855096911459E-2</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B80" s="1">
@@ -3702,103 +3702,103 @@
       <c r="C80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="21">
         <v>2.330813101980155</v>
       </c>
-      <c r="E80" s="23">
+      <c r="E80" s="22">
         <v>4.8600526734617491</v>
       </c>
-      <c r="F80" s="28">
+      <c r="F80" s="27">
         <v>1.94756998731117E-2</v>
       </c>
-      <c r="G80" s="28">
+      <c r="G80" s="27">
         <v>0.17959932761878489</v>
       </c>
-      <c r="H80" s="28">
+      <c r="H80" s="27">
         <v>0.50716787167908062</v>
       </c>
-      <c r="I80" s="28">
+      <c r="I80" s="27">
         <v>1.9365934626225809</v>
       </c>
-      <c r="J80" s="28">
+      <c r="J80" s="27">
         <v>33.396780158728262</v>
       </c>
-      <c r="K80" s="29">
+      <c r="K80" s="28">
         <v>0.53507716952885886</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="14">
+      <c r="B81" s="13">
         <v>16</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D81" s="23">
         <v>179.06977738396071</v>
       </c>
-      <c r="E81" s="25">
+      <c r="E81" s="24">
         <v>60.235907336677329</v>
       </c>
-      <c r="F81" s="30">
+      <c r="F81" s="29">
         <v>105.501749084981</v>
       </c>
-      <c r="G81" s="30">
+      <c r="G81" s="29">
         <v>118.2864305387791</v>
       </c>
-      <c r="H81" s="30">
+      <c r="H81" s="29">
         <v>215.90832883255561</v>
       </c>
-      <c r="I81" s="30">
+      <c r="I81" s="29">
         <v>237.48582899541651</v>
       </c>
-      <c r="J81" s="30">
+      <c r="J81" s="29">
         <v>259.66324112570248</v>
       </c>
-      <c r="K81" s="31">
+      <c r="K81" s="30">
         <v>168.62281786284629</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82" s="10">
         <v>17</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D82" s="19">
         <v>1070.1040688599101</v>
       </c>
-      <c r="E82" s="21">
+      <c r="E82" s="20">
         <v>149.907952304205</v>
       </c>
-      <c r="F82" s="26">
+      <c r="F82" s="25">
         <v>893.10876566763466</v>
       </c>
-      <c r="G82" s="26">
+      <c r="G82" s="25">
         <v>947.73145714088355</v>
       </c>
-      <c r="H82" s="26">
+      <c r="H82" s="25">
         <v>1066.143324812213</v>
       </c>
-      <c r="I82" s="26">
+      <c r="I82" s="25">
         <v>1151.5402213981299</v>
       </c>
-      <c r="J82" s="26">
+      <c r="J82" s="25">
         <v>1536.8937659078269</v>
       </c>
-      <c r="K82" s="27">
+      <c r="K82" s="26">
         <v>1060.742495422729</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B83" s="1">
@@ -3807,33 +3807,33 @@
       <c r="C83" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D83" s="21">
         <v>42.130182907728759</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E83" s="22">
         <v>84.835192518248661</v>
       </c>
-      <c r="F83" s="28">
+      <c r="F83" s="27">
         <v>2.6705785269057479E-14</v>
       </c>
-      <c r="G83" s="28">
+      <c r="G83" s="27">
         <v>6.7709247167426462E-2</v>
       </c>
-      <c r="H83" s="28">
+      <c r="H83" s="27">
         <v>4.0104846364874804</v>
       </c>
-      <c r="I83" s="28">
+      <c r="I83" s="27">
         <v>43.434658184166707</v>
       </c>
-      <c r="J83" s="28">
+      <c r="J83" s="27">
         <v>829.58620837725505</v>
       </c>
-      <c r="K83" s="29">
+      <c r="K83" s="28">
         <v>0.85873448912813222</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B84" s="1">
@@ -3842,33 +3842,33 @@
       <c r="C84" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="22">
+      <c r="D84" s="21">
         <v>33.441476987132013</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E84" s="22">
         <v>100.5493788211497</v>
       </c>
-      <c r="F84" s="28">
+      <c r="F84" s="27">
         <v>2.6705785269057479E-14</v>
       </c>
-      <c r="G84" s="28">
+      <c r="G84" s="27">
         <v>0.17984129881938091</v>
       </c>
-      <c r="H84" s="28">
+      <c r="H84" s="27">
         <v>0.79657259797438407</v>
       </c>
-      <c r="I84" s="28">
+      <c r="I84" s="27">
         <v>15.43813112779622</v>
       </c>
-      <c r="J84" s="28">
+      <c r="J84" s="27">
         <v>774.36896661766764</v>
       </c>
-      <c r="K84" s="29">
+      <c r="K84" s="28">
         <v>8.5526351433370326E-2</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B85" s="1">
@@ -3877,103 +3877,103 @@
       <c r="C85" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="21">
         <v>12.414586668508001</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="22">
         <v>22.585375073182352</v>
       </c>
-      <c r="F85" s="28">
+      <c r="F85" s="27">
         <v>2.6705785269057478E-13</v>
       </c>
-      <c r="G85" s="28">
+      <c r="G85" s="27">
         <v>1.0006807484454949</v>
       </c>
-      <c r="H85" s="28">
+      <c r="H85" s="27">
         <v>3.4079441928939218</v>
       </c>
-      <c r="I85" s="28">
+      <c r="I85" s="27">
         <v>11.87680458018937</v>
       </c>
-      <c r="J85" s="28">
+      <c r="J85" s="27">
         <v>148.72696984078561</v>
       </c>
-      <c r="K85" s="29">
+      <c r="K85" s="28">
         <v>2.9352333227337719</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="13">
         <v>17</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="24">
+      <c r="D86" s="23">
         <v>774.28833243970439</v>
       </c>
-      <c r="E86" s="25">
+      <c r="E86" s="24">
         <v>161.3878786011073</v>
       </c>
-      <c r="F86" s="30">
+      <c r="F86" s="29">
         <v>552.82232203201647</v>
       </c>
-      <c r="G86" s="30">
+      <c r="G86" s="29">
         <v>622.05134284523251</v>
       </c>
-      <c r="H86" s="30">
+      <c r="H86" s="29">
         <v>839.51330387772293</v>
       </c>
-      <c r="I86" s="30">
+      <c r="I86" s="29">
         <v>921.43646651224219</v>
       </c>
-      <c r="J86" s="30">
+      <c r="J86" s="29">
         <v>1022.239137766991</v>
       </c>
-      <c r="K86" s="31">
+      <c r="K86" s="30">
         <v>757.43186908979055</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87" s="10">
         <v>18</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="19">
         <v>159.4047033677997</v>
       </c>
-      <c r="E87" s="21">
+      <c r="E87" s="20">
         <v>24.959524349248198</v>
       </c>
-      <c r="F87" s="26">
+      <c r="F87" s="25">
         <v>128.15105917613391</v>
       </c>
-      <c r="G87" s="26">
+      <c r="G87" s="25">
         <v>135.9479550876529</v>
       </c>
-      <c r="H87" s="26">
+      <c r="H87" s="25">
         <v>162.85902094823851</v>
       </c>
-      <c r="I87" s="26">
+      <c r="I87" s="25">
         <v>174.54894557115131</v>
       </c>
-      <c r="J87" s="26">
+      <c r="J87" s="25">
         <v>220.00229700167199</v>
       </c>
-      <c r="K87" s="27">
+      <c r="K87" s="26">
         <v>157.57938882757639</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B88" s="1">
@@ -3982,33 +3982,33 @@
       <c r="C88" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D88" s="22">
+      <c r="D88" s="21">
         <v>6.4695298003167068</v>
       </c>
-      <c r="E88" s="23">
+      <c r="E88" s="22">
         <v>12.608844436143571</v>
       </c>
-      <c r="F88" s="28">
+      <c r="F88" s="27">
         <v>3.3618076969526991E-13</v>
       </c>
-      <c r="G88" s="28">
+      <c r="G88" s="27">
         <v>1.7581161005278699E-2</v>
       </c>
-      <c r="H88" s="28">
+      <c r="H88" s="27">
         <v>0.90292837165058315</v>
       </c>
-      <c r="I88" s="28">
+      <c r="I88" s="27">
         <v>6.6491892297314132</v>
       </c>
-      <c r="J88" s="28">
+      <c r="J88" s="27">
         <v>119.5764492059259</v>
       </c>
-      <c r="K88" s="29">
+      <c r="K88" s="28">
         <v>0.19395948743161309</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B89" s="1">
@@ -4017,33 +4017,33 @@
       <c r="C89" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D89" s="21">
         <v>5.519347960505133</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="22">
         <v>15.69148698835729</v>
       </c>
-      <c r="F89" s="28">
+      <c r="F89" s="27">
         <v>3.3618076969526991E-13</v>
       </c>
-      <c r="G89" s="28">
+      <c r="G89" s="27">
         <v>4.1685271652366129E-2</v>
       </c>
-      <c r="H89" s="28">
+      <c r="H89" s="27">
         <v>0.2014721733648219</v>
       </c>
-      <c r="I89" s="28">
+      <c r="I89" s="27">
         <v>3.0172395814722379</v>
       </c>
-      <c r="J89" s="28">
+      <c r="J89" s="27">
         <v>122.78949730896601</v>
       </c>
-      <c r="K89" s="29">
+      <c r="K89" s="28">
         <v>2.8472535748060562E-2</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B90" s="1">
@@ -4052,103 +4052,103 @@
       <c r="C90" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D90" s="21">
         <v>1.9172021793531511</v>
       </c>
-      <c r="E90" s="23">
+      <c r="E90" s="22">
         <v>3.2591726390860192</v>
       </c>
-      <c r="F90" s="28">
+      <c r="F90" s="27">
         <v>1.45982391307715E-2</v>
       </c>
-      <c r="G90" s="28">
+      <c r="G90" s="27">
         <v>0.16968567105794341</v>
       </c>
-      <c r="H90" s="28">
+      <c r="H90" s="27">
         <v>0.54278948368783408</v>
       </c>
-      <c r="I90" s="28">
+      <c r="I90" s="27">
         <v>1.9427859155737199</v>
       </c>
-      <c r="J90" s="28">
+      <c r="J90" s="27">
         <v>19.983150081946899</v>
       </c>
-      <c r="K90" s="29">
+      <c r="K90" s="28">
         <v>0.54504580054599572</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="14">
+      <c r="B91" s="13">
         <v>18</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="23">
         <v>119.4836231217616</v>
       </c>
-      <c r="E91" s="25">
+      <c r="E91" s="24">
         <v>24.940479144282161</v>
       </c>
-      <c r="F91" s="30">
+      <c r="F91" s="29">
         <v>83.203430203049621</v>
       </c>
-      <c r="G91" s="30">
+      <c r="G91" s="29">
         <v>95.753896336098407</v>
       </c>
-      <c r="H91" s="30">
+      <c r="H91" s="29">
         <v>131.4406902952293</v>
       </c>
-      <c r="I91" s="30">
+      <c r="I91" s="29">
         <v>143.30692026879379</v>
       </c>
-      <c r="J91" s="30">
+      <c r="J91" s="29">
         <v>155.27543440252811</v>
       </c>
-      <c r="K91" s="31">
+      <c r="K91" s="30">
         <v>116.86401068739281</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="11">
+      <c r="B92" s="10">
         <v>19</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D92" s="19">
         <v>915.68062680595119</v>
       </c>
-      <c r="E92" s="21">
+      <c r="E92" s="20">
         <v>173.69632557242031</v>
       </c>
-      <c r="F92" s="26">
+      <c r="F92" s="25">
         <v>674.5050361844103</v>
       </c>
-      <c r="G92" s="26">
+      <c r="G92" s="25">
         <v>744.46048994988405</v>
       </c>
-      <c r="H92" s="26">
+      <c r="H92" s="25">
         <v>966.05537242489913</v>
       </c>
-      <c r="I92" s="26">
+      <c r="I92" s="25">
         <v>1050.062470769227</v>
       </c>
-      <c r="J92" s="26">
+      <c r="J92" s="25">
         <v>1240.552950317312</v>
       </c>
-      <c r="K92" s="27">
+      <c r="K92" s="26">
         <v>899.48170075841881</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B93" s="1">
@@ -4157,33 +4157,33 @@
       <c r="C93" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D93" s="21">
         <v>46.330310603465598</v>
       </c>
-      <c r="E93" s="23">
+      <c r="E93" s="22">
         <v>82.811549886826029</v>
       </c>
-      <c r="F93" s="28">
+      <c r="F93" s="27">
         <v>2.4755713924940002E-4</v>
       </c>
-      <c r="G93" s="28">
+      <c r="G93" s="27">
         <v>0.37916681215239612</v>
       </c>
-      <c r="H93" s="28">
+      <c r="H93" s="27">
         <v>12.54127217975126</v>
       </c>
-      <c r="I93" s="28">
+      <c r="I93" s="27">
         <v>51.842393296172887</v>
       </c>
-      <c r="J93" s="28">
+      <c r="J93" s="27">
         <v>719.92114596746069</v>
       </c>
-      <c r="K93" s="29">
+      <c r="K93" s="28">
         <v>4.6630393146513747</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B94" s="1">
@@ -4192,33 +4192,33 @@
       <c r="C94" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="22">
+      <c r="D94" s="21">
         <v>43.649811956118619</v>
       </c>
-      <c r="E94" s="23">
+      <c r="E94" s="22">
         <v>109.5706349570238</v>
       </c>
-      <c r="F94" s="28">
+      <c r="F94" s="27">
         <v>2.4755713924939998E-5</v>
       </c>
-      <c r="G94" s="28">
+      <c r="G94" s="27">
         <v>0.51737786014046649</v>
       </c>
-      <c r="H94" s="28">
+      <c r="H94" s="27">
         <v>3.1151572986407809</v>
       </c>
-      <c r="I94" s="28">
+      <c r="I94" s="27">
         <v>31.472007693675099</v>
       </c>
-      <c r="J94" s="28">
+      <c r="J94" s="27">
         <v>776.7796108975956</v>
       </c>
-      <c r="K94" s="29">
+      <c r="K94" s="28">
         <v>2.3078602279314588</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B95" s="1">
@@ -4227,103 +4227,103 @@
       <c r="C95" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D95" s="21">
         <v>13.734889053422849</v>
       </c>
-      <c r="E95" s="23">
+      <c r="E95" s="22">
         <v>20.840926131640579</v>
       </c>
-      <c r="F95" s="28">
+      <c r="F95" s="27">
         <v>0.1129355762041139</v>
       </c>
-      <c r="G95" s="28">
+      <c r="G95" s="27">
         <v>1.3846835326709459</v>
       </c>
-      <c r="H95" s="28">
+      <c r="H95" s="27">
         <v>4.1858054432165321</v>
       </c>
-      <c r="I95" s="28">
+      <c r="I95" s="27">
         <v>17.769800658795202</v>
       </c>
-      <c r="J95" s="28">
+      <c r="J95" s="27">
         <v>114.32036432159229</v>
       </c>
-      <c r="K95" s="29">
+      <c r="K95" s="28">
         <v>4.3183480215699603</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B96" s="14">
+      <c r="B96" s="13">
         <v>19</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="24">
+      <c r="D96" s="23">
         <v>746.28353414405171</v>
       </c>
-      <c r="E96" s="25">
+      <c r="E96" s="24">
         <v>112.2638290038707</v>
       </c>
-      <c r="F96" s="30">
+      <c r="F96" s="29">
         <v>568.56035583709104</v>
       </c>
-      <c r="G96" s="30">
+      <c r="G96" s="29">
         <v>653.68082406153837</v>
       </c>
-      <c r="H96" s="30">
+      <c r="H96" s="29">
         <v>770.99522236415214</v>
       </c>
-      <c r="I96" s="30">
+      <c r="I96" s="29">
         <v>848.51538162803126</v>
       </c>
-      <c r="J96" s="30">
+      <c r="J96" s="29">
         <v>902.94100195891235</v>
       </c>
-      <c r="K96" s="31">
+      <c r="K96" s="30">
         <v>737.79857928370427</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="10">
         <v>20</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="19">
         <v>157.89992471644851</v>
       </c>
-      <c r="E97" s="21">
+      <c r="E97" s="20">
         <v>27.54483663593383</v>
       </c>
-      <c r="F97" s="26">
+      <c r="F97" s="25">
         <v>121.1172368901623</v>
       </c>
-      <c r="G97" s="26">
+      <c r="G97" s="25">
         <v>129.0330824150426</v>
       </c>
-      <c r="H97" s="26">
+      <c r="H97" s="25">
         <v>163.87186490527461</v>
       </c>
-      <c r="I97" s="26">
+      <c r="I97" s="25">
         <v>177.11886905929961</v>
       </c>
-      <c r="J97" s="26">
+      <c r="J97" s="25">
         <v>211.03975421796659</v>
       </c>
-      <c r="K97" s="27">
+      <c r="K97" s="26">
         <v>155.5896662367081</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B98" s="1">
@@ -4332,33 +4332,33 @@
       <c r="C98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="21">
         <v>11.47571618482784</v>
       </c>
-      <c r="E98" s="23">
+      <c r="E98" s="22">
         <v>18.547110101682389</v>
       </c>
-      <c r="F98" s="28">
+      <c r="F98" s="27">
         <v>8.2350514110640996E-3</v>
       </c>
-      <c r="G98" s="28">
+      <c r="G98" s="27">
         <v>0.29406388261082073</v>
       </c>
-      <c r="H98" s="28">
+      <c r="H98" s="27">
         <v>4.5435814568277459</v>
       </c>
-      <c r="I98" s="28">
+      <c r="I98" s="27">
         <v>13.16942976471722</v>
       </c>
-      <c r="J98" s="28">
+      <c r="J98" s="27">
         <v>149.07576304958741</v>
       </c>
-      <c r="K98" s="29">
+      <c r="K98" s="28">
         <v>2.1026959199662301</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B99" s="1">
@@ -4367,33 +4367,33 @@
       <c r="C99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="21">
         <v>11.720677687677879</v>
       </c>
-      <c r="E99" s="23">
+      <c r="E99" s="22">
         <v>24.99578309012384</v>
       </c>
-      <c r="F99" s="28">
+      <c r="F99" s="27">
         <v>2.5886652323454999E-4</v>
       </c>
-      <c r="G99" s="28">
+      <c r="G99" s="27">
         <v>0.2671996884566617</v>
       </c>
-      <c r="H99" s="28">
+      <c r="H99" s="27">
         <v>1.569804751076334</v>
       </c>
-      <c r="I99" s="28">
+      <c r="I99" s="27">
         <v>11.04232479584441</v>
       </c>
-      <c r="J99" s="28">
+      <c r="J99" s="27">
         <v>155.82342764248821</v>
       </c>
-      <c r="K99" s="29">
+      <c r="K99" s="28">
         <v>1.1228546463080811</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B100" s="1">
@@ -4402,103 +4402,103 @@
       <c r="C100" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D100" s="22">
+      <c r="D100" s="21">
         <v>3.3838785999794072</v>
       </c>
-      <c r="E100" s="23">
+      <c r="E100" s="22">
         <v>4.609883148953501</v>
       </c>
-      <c r="F100" s="28">
+      <c r="F100" s="27">
         <v>2.6965570157898799E-2</v>
       </c>
-      <c r="G100" s="28">
+      <c r="G100" s="27">
         <v>0.35849811104292068</v>
       </c>
-      <c r="H100" s="28">
+      <c r="H100" s="27">
         <v>1.074244491971529</v>
       </c>
-      <c r="I100" s="28">
+      <c r="I100" s="27">
         <v>5.5014559424637914</v>
       </c>
-      <c r="J100" s="28">
+      <c r="J100" s="27">
         <v>22.328958897631779</v>
       </c>
-      <c r="K100" s="29">
+      <c r="K100" s="28">
         <v>1.1455921748431599</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B101" s="14">
+      <c r="B101" s="13">
         <v>20</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="24">
+      <c r="D101" s="23">
         <v>139.4390947526295</v>
       </c>
-      <c r="E101" s="25">
+      <c r="E101" s="24">
         <v>11.773227832364229</v>
       </c>
-      <c r="F101" s="30">
+      <c r="F101" s="29">
         <v>116.5543289516236</v>
       </c>
-      <c r="G101" s="30">
+      <c r="G101" s="29">
         <v>131.55200395526671</v>
       </c>
-      <c r="H101" s="30">
+      <c r="H101" s="29">
         <v>140.2299283971544</v>
       </c>
-      <c r="I101" s="30">
+      <c r="I101" s="29">
         <v>148.65165960691019</v>
       </c>
-      <c r="J101" s="30">
+      <c r="J101" s="29">
         <v>161.66877328095941</v>
       </c>
-      <c r="K101" s="31">
+      <c r="K101" s="30">
         <v>138.94498296387411</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="11">
+      <c r="B102" s="10">
         <v>21</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="20">
+      <c r="D102" s="19">
         <v>350.04285203356721</v>
       </c>
-      <c r="E102" s="21">
+      <c r="E102" s="20">
         <v>61.138813301942648</v>
       </c>
-      <c r="F102" s="26">
+      <c r="F102" s="25">
         <v>268.6333180705098</v>
       </c>
-      <c r="G102" s="26">
+      <c r="G102" s="25">
         <v>287.45035065639132</v>
       </c>
-      <c r="H102" s="26">
+      <c r="H102" s="25">
         <v>365.27674023912692</v>
       </c>
-      <c r="I102" s="26">
+      <c r="I102" s="25">
         <v>396.04224507003022</v>
       </c>
-      <c r="J102" s="26">
+      <c r="J102" s="25">
         <v>462.8716191519357</v>
       </c>
-      <c r="K102" s="27">
+      <c r="K102" s="26">
         <v>344.88941243852707</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B103" s="1">
@@ -4507,33 +4507,33 @@
       <c r="C103" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="22">
+      <c r="D103" s="21">
         <v>34.471429974559157</v>
       </c>
-      <c r="E103" s="23">
+      <c r="E103" s="22">
         <v>50.527017242604543</v>
       </c>
-      <c r="F103" s="28">
+      <c r="F103" s="27">
         <v>6.7118835250139397E-2</v>
       </c>
-      <c r="G103" s="28">
+      <c r="G103" s="27">
         <v>1.9761402444983971</v>
       </c>
-      <c r="H103" s="28">
+      <c r="H103" s="27">
         <v>17.467629434801172</v>
       </c>
-      <c r="I103" s="28">
+      <c r="I103" s="27">
         <v>40.827388052306993</v>
       </c>
-      <c r="J103" s="28">
+      <c r="J103" s="27">
         <v>384.45032598194388</v>
       </c>
-      <c r="K103" s="29">
+      <c r="K103" s="28">
         <v>9.5689005719160498</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B104" s="1">
@@ -4542,33 +4542,33 @@
       <c r="C104" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="22">
+      <c r="D104" s="21">
         <v>38.955416848800063</v>
       </c>
-      <c r="E104" s="23">
+      <c r="E104" s="22">
         <v>71.136660276931394</v>
       </c>
-      <c r="F104" s="28">
+      <c r="F104" s="27">
         <v>9.265545464451901E-4</v>
       </c>
-      <c r="G104" s="28">
+      <c r="G104" s="27">
         <v>1.1761072734836699</v>
       </c>
-      <c r="H104" s="28">
+      <c r="H104" s="27">
         <v>8.2469454257051886</v>
       </c>
-      <c r="I104" s="28">
+      <c r="I104" s="27">
         <v>42.482277548623713</v>
       </c>
-      <c r="J104" s="28">
+      <c r="J104" s="27">
         <v>421.98913907797601</v>
       </c>
-      <c r="K104" s="29">
+      <c r="K104" s="28">
         <v>5.2491711472418832</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B105" s="1">
@@ -4577,103 +4577,103 @@
       <c r="C105" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="22">
+      <c r="D105" s="21">
         <v>10.549460246157389</v>
       </c>
-      <c r="E105" s="23">
+      <c r="E105" s="22">
         <v>13.56853894300029</v>
       </c>
-      <c r="F105" s="28">
+      <c r="F105" s="27">
         <v>8.1970091414662799E-2</v>
       </c>
-      <c r="G105" s="28">
+      <c r="G105" s="27">
         <v>1.356978127176935</v>
       </c>
-      <c r="H105" s="28">
+      <c r="H105" s="27">
         <v>3.3667295013870091</v>
       </c>
-      <c r="I105" s="28">
+      <c r="I105" s="27">
         <v>19.578799591294899</v>
       </c>
-      <c r="J105" s="28">
+      <c r="J105" s="27">
         <v>62.96687671114271</v>
       </c>
-      <c r="K105" s="29">
+      <c r="K105" s="28">
         <v>3.7645031888371152</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B106" s="14">
+      <c r="B106" s="13">
         <v>21</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D106" s="24">
+      <c r="D106" s="23">
         <v>326.23703112964159</v>
       </c>
-      <c r="E106" s="25">
+      <c r="E106" s="24">
         <v>28.273711204168411</v>
       </c>
-      <c r="F106" s="30">
+      <c r="F106" s="29">
         <v>274.60381822845881</v>
       </c>
-      <c r="G106" s="30">
+      <c r="G106" s="29">
         <v>305.49026321250801</v>
       </c>
-      <c r="H106" s="30">
+      <c r="H106" s="29">
         <v>323.82405057223798</v>
       </c>
-      <c r="I106" s="30">
+      <c r="I106" s="29">
         <v>349.33871968233137</v>
       </c>
-      <c r="J106" s="30">
+      <c r="J106" s="29">
         <v>377.07907053270208</v>
       </c>
-      <c r="K106" s="31">
+      <c r="K106" s="30">
         <v>325.02219900842539</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B107" s="11">
+      <c r="B107" s="10">
         <v>22</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="20">
+      <c r="D107" s="19">
         <v>33.044489555530973</v>
       </c>
-      <c r="E107" s="21">
+      <c r="E107" s="20">
         <v>5.6957686206373968</v>
       </c>
-      <c r="F107" s="26">
+      <c r="F107" s="25">
         <v>25.81988898750609</v>
       </c>
-      <c r="G107" s="26">
+      <c r="G107" s="25">
         <v>27.212960528222339</v>
       </c>
-      <c r="H107" s="26">
+      <c r="H107" s="25">
         <v>34.31625565515882</v>
       </c>
-      <c r="I107" s="26">
+      <c r="I107" s="25">
         <v>37.364434064252698</v>
       </c>
-      <c r="J107" s="26">
+      <c r="J107" s="25">
         <v>44.072149766391938</v>
       </c>
-      <c r="K107" s="27">
+      <c r="K107" s="26">
         <v>32.572855740883192</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B108" s="1">
@@ -4682,33 +4682,33 @@
       <c r="C108" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D108" s="22">
+      <c r="D108" s="21">
         <v>4.3949411197612482</v>
       </c>
-      <c r="E108" s="23">
+      <c r="E108" s="22">
         <v>5.9579389153688007</v>
       </c>
-      <c r="F108" s="28">
+      <c r="F108" s="27">
         <v>1.8764085949442299E-2</v>
       </c>
-      <c r="G108" s="28">
+      <c r="G108" s="27">
         <v>0.43282582309782569</v>
       </c>
-      <c r="H108" s="28">
+      <c r="H108" s="27">
         <v>2.622714064633421</v>
       </c>
-      <c r="I108" s="28">
+      <c r="I108" s="27">
         <v>5.5236422500862137</v>
       </c>
-      <c r="J108" s="28">
+      <c r="J108" s="27">
         <v>44.869838217181233</v>
       </c>
-      <c r="K108" s="29">
+      <c r="K108" s="28">
         <v>1.590966407203573</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B109" s="1">
@@ -4717,33 +4717,33 @@
       <c r="C109" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="22">
+      <c r="D109" s="21">
         <v>5.4149559904653888</v>
       </c>
-      <c r="E109" s="23">
+      <c r="E109" s="22">
         <v>8.5542379883310531</v>
       </c>
-      <c r="F109" s="28">
+      <c r="F109" s="27">
         <v>5.3986182861506152E-30</v>
       </c>
-      <c r="G109" s="28">
+      <c r="G109" s="27">
         <v>0.19271390789363979</v>
       </c>
-      <c r="H109" s="28">
+      <c r="H109" s="27">
         <v>1.565842956120608</v>
       </c>
-      <c r="I109" s="28">
+      <c r="I109" s="27">
         <v>7.256491439834428</v>
       </c>
-      <c r="J109" s="28">
+      <c r="J109" s="27">
         <v>46.031267807779507</v>
       </c>
-      <c r="K109" s="29">
+      <c r="K109" s="28">
         <v>0.50466381586107179</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B110" s="1">
@@ -4752,103 +4752,103 @@
       <c r="C110" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D110" s="22">
+      <c r="D110" s="21">
         <v>1.412637918035581</v>
       </c>
-      <c r="E110" s="23">
+      <c r="E110" s="22">
         <v>1.7604068507245989</v>
       </c>
-      <c r="F110" s="28">
+      <c r="F110" s="27">
         <v>1.5752377563473901E-2</v>
       </c>
-      <c r="G110" s="28">
+      <c r="G110" s="27">
         <v>0.23224769290992359</v>
       </c>
-      <c r="H110" s="28">
+      <c r="H110" s="27">
         <v>0.44290942040460601</v>
       </c>
-      <c r="I110" s="28">
+      <c r="I110" s="27">
         <v>2.7930224503358732</v>
       </c>
-      <c r="J110" s="28">
+      <c r="J110" s="27">
         <v>7.6399793469840276</v>
       </c>
-      <c r="K110" s="29">
+      <c r="K110" s="28">
         <v>0.53752152886968385</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B111" s="14">
+      <c r="B111" s="13">
         <v>22</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D111" s="24">
+      <c r="D111" s="23">
         <v>31.320075613818219</v>
       </c>
-      <c r="E111" s="25">
+      <c r="E111" s="24">
         <v>3.4532051389503668</v>
       </c>
-      <c r="F111" s="30">
+      <c r="F111" s="29">
         <v>25.29841794532387</v>
       </c>
-      <c r="G111" s="30">
+      <c r="G111" s="29">
         <v>28.40867582914273</v>
       </c>
-      <c r="H111" s="30">
+      <c r="H111" s="29">
         <v>31.737214033608879</v>
       </c>
-      <c r="I111" s="30">
+      <c r="I111" s="29">
         <v>34.498634174707647</v>
       </c>
-      <c r="J111" s="30">
+      <c r="J111" s="29">
         <v>36.621774802699171</v>
       </c>
-      <c r="K111" s="31">
+      <c r="K111" s="30">
         <v>31.131193553374011</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B112" s="11">
+      <c r="B112" s="10">
         <v>23</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D112" s="20">
+      <c r="D112" s="19">
         <v>145.12534923899091</v>
       </c>
-      <c r="E112" s="21">
+      <c r="E112" s="20">
         <v>27.14080601287041</v>
       </c>
-      <c r="F112" s="26">
+      <c r="F112" s="25">
         <v>108.8172320263444</v>
       </c>
-      <c r="G112" s="26">
+      <c r="G112" s="25">
         <v>115.0210679890764</v>
       </c>
-      <c r="H112" s="26">
+      <c r="H112" s="25">
         <v>150.9866909327317</v>
       </c>
-      <c r="I112" s="26">
+      <c r="I112" s="25">
         <v>168.36709121845681</v>
       </c>
-      <c r="J112" s="26">
+      <c r="J112" s="25">
         <v>190.70498950170341</v>
       </c>
-      <c r="K112" s="27">
+      <c r="K112" s="26">
         <v>142.6339677410667</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B113" s="1">
@@ -4857,33 +4857,33 @@
       <c r="C113" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="22">
+      <c r="D113" s="21">
         <v>26.23290846297375</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="22">
         <v>32.212281592014691</v>
       </c>
-      <c r="F113" s="28">
+      <c r="F113" s="27">
         <v>0.31240969518086981</v>
       </c>
-      <c r="G113" s="28">
+      <c r="G113" s="27">
         <v>4.5319713337403176</v>
       </c>
-      <c r="H113" s="28">
+      <c r="H113" s="27">
         <v>16.01774698061066</v>
       </c>
-      <c r="I113" s="28">
+      <c r="I113" s="27">
         <v>33.088828614343413</v>
       </c>
-      <c r="J113" s="28">
+      <c r="J113" s="27">
         <v>228.89441652344499</v>
       </c>
-      <c r="K113" s="29">
+      <c r="K113" s="28">
         <v>12.19677658145671</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B114" s="1">
@@ -4892,33 +4892,33 @@
       <c r="C114" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D114" s="22">
+      <c r="D114" s="21">
         <v>35.678648749593513</v>
       </c>
-      <c r="E114" s="23">
+      <c r="E114" s="22">
         <v>49.49526470346531</v>
       </c>
-      <c r="F114" s="28">
+      <c r="F114" s="27">
         <v>2.28497281169085E-2</v>
       </c>
-      <c r="G114" s="28">
+      <c r="G114" s="27">
         <v>1.5550661152236389</v>
       </c>
-      <c r="H114" s="28">
+      <c r="H114" s="27">
         <v>13.75996698984774</v>
       </c>
-      <c r="I114" s="28">
+      <c r="I114" s="27">
         <v>53.912141686961853</v>
       </c>
-      <c r="J114" s="28">
+      <c r="J114" s="27">
         <v>248.71882806863431</v>
       </c>
-      <c r="K114" s="29">
+      <c r="K114" s="28">
         <v>7.2290404373500303</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B115" s="1">
@@ -4927,103 +4927,103 @@
       <c r="C115" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D115" s="22">
+      <c r="D115" s="21">
         <v>8.8485881565331077</v>
       </c>
-      <c r="E115" s="23">
+      <c r="E115" s="22">
         <v>10.526742660007629</v>
       </c>
-      <c r="F115" s="28">
+      <c r="F115" s="27">
         <v>0.13657157159547989</v>
       </c>
-      <c r="G115" s="28">
+      <c r="G115" s="27">
         <v>1.7548407459494171</v>
       </c>
-      <c r="H115" s="28">
+      <c r="H115" s="27">
         <v>3.171324931237907</v>
       </c>
-      <c r="I115" s="28">
+      <c r="I115" s="27">
         <v>16.269586937549391</v>
       </c>
-      <c r="J115" s="28">
+      <c r="J115" s="27">
         <v>41.886332348798327</v>
       </c>
-      <c r="K115" s="29">
+      <c r="K115" s="28">
         <v>3.6944075519660768</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B116" s="14">
+      <c r="B116" s="13">
         <v>23</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D116" s="24">
+      <c r="D116" s="23">
         <v>134.46140577903961</v>
       </c>
-      <c r="E116" s="25">
+      <c r="E116" s="24">
         <v>21.6968356808264</v>
       </c>
-      <c r="F116" s="30">
+      <c r="F116" s="29">
         <v>101.28878070025161</v>
       </c>
-      <c r="G116" s="30">
+      <c r="G116" s="29">
         <v>114.676786790978</v>
       </c>
-      <c r="H116" s="30">
+      <c r="H116" s="29">
         <v>142.75307153328751</v>
       </c>
-      <c r="I116" s="30">
+      <c r="I116" s="29">
         <v>155.59768969977779</v>
       </c>
-      <c r="J116" s="30">
+      <c r="J116" s="29">
         <v>163.83535052286689</v>
       </c>
-      <c r="K116" s="31">
+      <c r="K116" s="30">
         <v>132.71794454536581</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B117" s="11">
+      <c r="B117" s="10">
         <v>24</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D117" s="20">
+      <c r="D117" s="19">
         <v>16.81368106847027</v>
       </c>
-      <c r="E117" s="21">
+      <c r="E117" s="20">
         <v>3.3745906194093318</v>
       </c>
-      <c r="F117" s="26">
+      <c r="F117" s="25">
         <v>12.17309815180994</v>
       </c>
-      <c r="G117" s="26">
+      <c r="G117" s="25">
         <v>13.144051142234501</v>
       </c>
-      <c r="H117" s="26">
+      <c r="H117" s="25">
         <v>17.723193326119979</v>
       </c>
-      <c r="I117" s="26">
+      <c r="I117" s="25">
         <v>19.806771341450151</v>
       </c>
-      <c r="J117" s="26">
+      <c r="J117" s="25">
         <v>22.694807017654881</v>
       </c>
-      <c r="K117" s="27">
+      <c r="K117" s="26">
         <v>16.47563815184574</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B118" s="1">
@@ -5032,33 +5032,33 @@
       <c r="C118" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D118" s="22">
+      <c r="D118" s="21">
         <v>3.872775685074421</v>
       </c>
-      <c r="E118" s="23">
+      <c r="E118" s="22">
         <v>4.3073925232646104</v>
       </c>
-      <c r="F118" s="28">
+      <c r="F118" s="27">
         <v>9.6752123452687494E-2</v>
       </c>
-      <c r="G118" s="28">
+      <c r="G118" s="27">
         <v>0.96464248467567493</v>
       </c>
-      <c r="H118" s="28">
+      <c r="H118" s="27">
         <v>2.3619345347430269</v>
       </c>
-      <c r="I118" s="28">
+      <c r="I118" s="27">
         <v>4.9781964698142307</v>
       </c>
-      <c r="J118" s="28">
+      <c r="J118" s="27">
         <v>28.835530480910158</v>
       </c>
-      <c r="K118" s="29">
+      <c r="K118" s="28">
         <v>2.1627293014095659</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B119" s="1">
@@ -5067,33 +5067,33 @@
       <c r="C119" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D119" s="22">
+      <c r="D119" s="21">
         <v>5.473850192573857</v>
       </c>
-      <c r="E119" s="23">
+      <c r="E119" s="22">
         <v>6.9171171461312486</v>
       </c>
-      <c r="F119" s="28">
+      <c r="F119" s="27">
         <v>8.6651333489349003E-3</v>
       </c>
-      <c r="G119" s="28">
+      <c r="G119" s="27">
         <v>0.26450921481468981</v>
       </c>
-      <c r="H119" s="28">
+      <c r="H119" s="27">
         <v>2.5852659307447889</v>
       </c>
-      <c r="I119" s="28">
+      <c r="I119" s="27">
         <v>8.4165715467545041</v>
       </c>
-      <c r="J119" s="28">
+      <c r="J119" s="27">
         <v>32.555850363593727</v>
       </c>
-      <c r="K119" s="29">
+      <c r="K119" s="28">
         <v>1.299523618723625</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B120" s="1">
@@ -5102,103 +5102,103 @@
       <c r="C120" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D120" s="22">
+      <c r="D120" s="21">
         <v>1.2858576225624401</v>
       </c>
-      <c r="E120" s="23">
+      <c r="E120" s="22">
         <v>1.444489126780127</v>
       </c>
-      <c r="F120" s="28">
+      <c r="F120" s="27">
         <v>2.2181486740588799E-2</v>
       </c>
-      <c r="G120" s="28">
+      <c r="G120" s="27">
         <v>0.30391822960772991</v>
       </c>
-      <c r="H120" s="28">
+      <c r="H120" s="27">
         <v>0.49600503506533122</v>
       </c>
-      <c r="I120" s="28">
+      <c r="I120" s="27">
         <v>2.2679430256558208</v>
       </c>
-      <c r="J120" s="28">
+      <c r="J120" s="27">
         <v>5.5427218319822016</v>
       </c>
-      <c r="K120" s="29">
+      <c r="K120" s="28">
         <v>0.58187891200168063</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B121" s="14">
+      <c r="B121" s="13">
         <v>24</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D121" s="24">
+      <c r="D121" s="23">
         <v>15.03350786545329</v>
       </c>
-      <c r="E121" s="25">
+      <c r="E121" s="24">
         <v>2.9341012391016941</v>
       </c>
-      <c r="F121" s="30">
+      <c r="F121" s="29">
         <v>10.8835926425967</v>
       </c>
-      <c r="G121" s="30">
+      <c r="G121" s="29">
         <v>12.209353176334711</v>
       </c>
-      <c r="H121" s="30">
+      <c r="H121" s="29">
         <v>16.541706721924019</v>
       </c>
-      <c r="I121" s="30">
+      <c r="I121" s="29">
         <v>17.762602895542361</v>
       </c>
-      <c r="J121" s="30">
+      <c r="J121" s="29">
         <v>19.163301553907299</v>
       </c>
-      <c r="K121" s="31">
+      <c r="K121" s="30">
         <v>14.74837829208678</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B122" s="11">
+      <c r="B122" s="10">
         <v>25</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D122" s="20">
+      <c r="D122" s="19">
         <v>0.18774579137248601</v>
       </c>
-      <c r="E122" s="21">
+      <c r="E122" s="20">
         <v>0.1099993847745396</v>
       </c>
-      <c r="F122" s="26">
+      <c r="F122" s="25">
         <v>9.7641830657899498E-2</v>
       </c>
-      <c r="G122" s="26">
+      <c r="G122" s="25">
         <v>0.13102478398903311</v>
       </c>
-      <c r="H122" s="26">
+      <c r="H122" s="25">
         <v>0.17568643225350319</v>
       </c>
-      <c r="I122" s="26">
+      <c r="I122" s="25">
         <v>0.21305494197949171</v>
       </c>
-      <c r="J122" s="26">
+      <c r="J122" s="25">
         <v>0.69877494575847665</v>
       </c>
-      <c r="K122" s="27">
+      <c r="K122" s="26">
         <v>0.1714030196581672</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B123" s="1">
@@ -5207,33 +5207,33 @@
       <c r="C123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D123" s="22">
+      <c r="D123" s="21">
         <v>7.0275851985635712E-2</v>
       </c>
-      <c r="E123" s="23">
+      <c r="E123" s="22">
         <v>0.13426960615595679</v>
       </c>
-      <c r="F123" s="28">
+      <c r="F123" s="27">
         <v>1.595262450464069E-13</v>
       </c>
-      <c r="G123" s="28">
+      <c r="G123" s="27">
         <v>1.2731082306137851E-2</v>
       </c>
-      <c r="H123" s="28">
+      <c r="H123" s="27">
         <v>2.27216278260442E-2</v>
       </c>
-      <c r="I123" s="28">
+      <c r="I123" s="27">
         <v>0.1071792743349444</v>
       </c>
-      <c r="J123" s="28">
+      <c r="J123" s="27">
         <v>2.383047185368484</v>
       </c>
-      <c r="K123" s="29">
+      <c r="K123" s="28">
         <v>1.4163141783222919E-2</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B124" s="1">
@@ -5242,33 +5242,33 @@
       <c r="C124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D124" s="22">
+      <c r="D124" s="21">
         <v>0.13249130476094109</v>
       </c>
-      <c r="E124" s="23">
+      <c r="E124" s="22">
         <v>0.2431275284979145</v>
       </c>
-      <c r="F124" s="28">
+      <c r="F124" s="27">
         <v>1.595262450464069E-13</v>
       </c>
-      <c r="G124" s="28">
+      <c r="G124" s="27">
         <v>3.8347525191164612E-2</v>
       </c>
-      <c r="H124" s="28">
+      <c r="H124" s="27">
         <v>7.6758271641210546E-2</v>
       </c>
-      <c r="I124" s="28">
+      <c r="I124" s="27">
         <v>0.1514428880245868</v>
       </c>
-      <c r="J124" s="28">
+      <c r="J124" s="27">
         <v>3.7553528214819498</v>
       </c>
-      <c r="K124" s="29">
+      <c r="K124" s="28">
         <v>6.6731721723491247E-2</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B125" s="1">
@@ -5277,103 +5277,103 @@
       <c r="C125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D125" s="22">
+      <c r="D125" s="21">
         <v>0.36184446736293979</v>
       </c>
-      <c r="E125" s="23">
+      <c r="E125" s="22">
         <v>1.943115402901437</v>
       </c>
-      <c r="F125" s="28">
+      <c r="F125" s="27">
         <v>1.595262450464069E-13</v>
       </c>
-      <c r="G125" s="28">
+      <c r="G125" s="27">
         <v>1.595262450464069E-13</v>
       </c>
-      <c r="H125" s="28">
+      <c r="H125" s="27">
         <v>1.251729050749055E-2</v>
       </c>
-      <c r="I125" s="28">
+      <c r="I125" s="27">
         <v>0.14423523749600989</v>
       </c>
-      <c r="J125" s="28">
+      <c r="J125" s="27">
         <v>22.521918345754059</v>
       </c>
-      <c r="K125" s="29">
+      <c r="K125" s="28">
         <v>1.035487381713588E-5</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B126" s="14">
+      <c r="B126" s="13">
         <v>25</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D126" s="24">
+      <c r="D126" s="23">
         <v>0.1344826434318194</v>
       </c>
-      <c r="E126" s="25">
+      <c r="E126" s="24">
         <v>1.621980379366466E-2</v>
       </c>
-      <c r="F126" s="30">
+      <c r="F126" s="29">
         <v>9.8657464251860505E-2</v>
       </c>
-      <c r="G126" s="30">
+      <c r="G126" s="29">
         <v>0.1238324117461979</v>
       </c>
-      <c r="H126" s="30">
+      <c r="H126" s="29">
         <v>0.13271184059711119</v>
       </c>
-      <c r="I126" s="30">
+      <c r="I126" s="29">
         <v>0.14804291502569231</v>
       </c>
-      <c r="J126" s="30">
+      <c r="J126" s="29">
         <v>0.1636907396955416</v>
       </c>
-      <c r="K126" s="31">
+      <c r="K126" s="30">
         <v>0.13350614996275509</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B127" s="11">
+      <c r="B127" s="10">
         <v>26</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D127" s="20">
+      <c r="D127" s="19">
         <v>125.5748781685905</v>
       </c>
-      <c r="E127" s="21">
+      <c r="E127" s="20">
         <v>32.329596429825507</v>
       </c>
-      <c r="F127" s="26">
+      <c r="F127" s="25">
         <v>73.455381301783532</v>
       </c>
-      <c r="G127" s="26">
+      <c r="G127" s="25">
         <v>107.97522768649171</v>
       </c>
-      <c r="H127" s="26">
+      <c r="H127" s="25">
         <v>120.4224208442805</v>
       </c>
-      <c r="I127" s="26">
+      <c r="I127" s="25">
         <v>135.70174786483139</v>
       </c>
-      <c r="J127" s="26">
+      <c r="J127" s="25">
         <v>244.22916616487231</v>
       </c>
-      <c r="K127" s="27">
+      <c r="K127" s="26">
         <v>122.26319595477899</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B128" s="1">
@@ -5382,33 +5382,33 @@
       <c r="C128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D128" s="22">
+      <c r="D128" s="21">
         <v>0.70993307551513696</v>
       </c>
-      <c r="E128" s="23">
+      <c r="E128" s="22">
         <v>8.5002298526408353</v>
       </c>
-      <c r="F128" s="28">
+      <c r="F128" s="27">
         <v>1.0039095443120081E-9</v>
       </c>
-      <c r="G128" s="28">
+      <c r="G128" s="27">
         <v>1.874479784240551E-5</v>
       </c>
-      <c r="H128" s="28">
+      <c r="H128" s="27">
         <v>5.2409705871304E-3</v>
       </c>
-      <c r="I128" s="28">
+      <c r="I128" s="27">
         <v>0.1104406578043191</v>
       </c>
-      <c r="J128" s="28">
+      <c r="J128" s="27">
         <v>189.10658417776719</v>
       </c>
-      <c r="K128" s="29">
+      <c r="K128" s="28">
         <v>3.0580778016325231E-4</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B129" s="1">
@@ -5417,33 +5417,33 @@
       <c r="C129" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D129" s="22">
+      <c r="D129" s="21">
         <v>0.59274137241909219</v>
       </c>
-      <c r="E129" s="23">
+      <c r="E129" s="22">
         <v>4.9818022845874506</v>
       </c>
-      <c r="F129" s="28">
+      <c r="F129" s="27">
         <v>1.0039095443120081E-9</v>
       </c>
-      <c r="G129" s="28">
+      <c r="G129" s="27">
         <v>1.0039095443120081E-9</v>
       </c>
-      <c r="H129" s="28">
+      <c r="H129" s="27">
         <v>1.1307176792810351E-2</v>
       </c>
-      <c r="I129" s="28">
+      <c r="I129" s="27">
         <v>7.4456404501160478E-2</v>
       </c>
-      <c r="J129" s="28">
+      <c r="J129" s="27">
         <v>63.88733624391098</v>
       </c>
-      <c r="K129" s="29">
+      <c r="K129" s="28">
         <v>1.3878554601189059E-4</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B130" s="1">
@@ -5452,103 +5452,103 @@
       <c r="C130" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D130" s="22">
+      <c r="D130" s="21">
         <v>1.8183631446975561</v>
       </c>
-      <c r="E130" s="23">
+      <c r="E130" s="22">
         <v>5.2124967228727481</v>
       </c>
-      <c r="F130" s="28">
+      <c r="F130" s="27">
         <v>3.7634599078159998E-4</v>
       </c>
-      <c r="G130" s="28">
+      <c r="G130" s="27">
         <v>0.1995234154988392</v>
       </c>
-      <c r="H130" s="28">
+      <c r="H130" s="27">
         <v>0.45134391490801062</v>
       </c>
-      <c r="I130" s="28">
+      <c r="I130" s="27">
         <v>1.145355823524328</v>
       </c>
-      <c r="J130" s="28">
+      <c r="J130" s="27">
         <v>38.990164369559409</v>
       </c>
-      <c r="K130" s="29">
+      <c r="K130" s="28">
         <v>0.29119824094314778</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B131" s="14">
+      <c r="B131" s="13">
         <v>26</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D131" s="24">
+      <c r="D131" s="23">
         <v>2.3516015431201769</v>
       </c>
-      <c r="E131" s="25">
+      <c r="E131" s="24">
         <v>4.9454412331661022</v>
       </c>
-      <c r="F131" s="30">
+      <c r="F131" s="29">
         <v>6.8300216741127906E-2</v>
       </c>
-      <c r="G131" s="30">
+      <c r="G131" s="29">
         <v>0.1834052583310937</v>
       </c>
-      <c r="H131" s="30">
+      <c r="H131" s="29">
         <v>0.67477578743667144</v>
       </c>
-      <c r="I131" s="30">
+      <c r="I131" s="29">
         <v>1.983252503521282</v>
       </c>
-      <c r="J131" s="30">
+      <c r="J131" s="29">
         <v>30.844381556108068</v>
       </c>
-      <c r="K131" s="31">
+      <c r="K131" s="30">
         <v>0.72948930466389028</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B132" s="11">
+      <c r="B132" s="10">
         <v>27</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D132" s="20">
+      <c r="D132" s="19">
         <v>20.321416706838651</v>
       </c>
-      <c r="E132" s="21">
+      <c r="E132" s="20">
         <v>1.558767208867804</v>
       </c>
-      <c r="F132" s="26">
+      <c r="F132" s="25">
         <v>17.62477534611914</v>
       </c>
-      <c r="G132" s="26">
+      <c r="G132" s="25">
         <v>19.462320670203081</v>
       </c>
-      <c r="H132" s="26">
+      <c r="H132" s="25">
         <v>20.189503225406309</v>
       </c>
-      <c r="I132" s="26">
+      <c r="I132" s="25">
         <v>21.071619792089269</v>
       </c>
-      <c r="J132" s="26">
+      <c r="J132" s="25">
         <v>24.014892009977881</v>
       </c>
-      <c r="K132" s="27">
+      <c r="K132" s="26">
         <v>20.264215111565949</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B133" s="1">
@@ -5557,33 +5557,33 @@
       <c r="C133" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D133" s="22">
+      <c r="D133" s="21">
         <v>1082.2152851011019</v>
       </c>
-      <c r="E133" s="23">
+      <c r="E133" s="22">
         <v>1052.2361159984789</v>
       </c>
-      <c r="F133" s="28">
+      <c r="F133" s="27">
         <v>136.62921790509779</v>
       </c>
-      <c r="G133" s="28">
+      <c r="G133" s="27">
         <v>423.06077145045452</v>
       </c>
-      <c r="H133" s="28">
+      <c r="H133" s="27">
         <v>670.00204997038759</v>
       </c>
-      <c r="I133" s="28">
+      <c r="I133" s="27">
         <v>1205.13887107953</v>
       </c>
-      <c r="J133" s="28">
+      <c r="J133" s="27">
         <v>6164.0349463298999</v>
       </c>
-      <c r="K133" s="29">
+      <c r="K133" s="28">
         <v>725.35838434722496</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B134" s="1">
@@ -5592,33 +5592,33 @@
       <c r="C134" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D134" s="22">
+      <c r="D134" s="21">
         <v>2617.4590886516221</v>
       </c>
-      <c r="E134" s="23">
+      <c r="E134" s="22">
         <v>1576.2107518288781</v>
       </c>
-      <c r="F134" s="28">
+      <c r="F134" s="27">
         <v>370.49347853956908</v>
       </c>
-      <c r="G134" s="28">
+      <c r="G134" s="27">
         <v>1102.5543488066101</v>
       </c>
-      <c r="H134" s="28">
+      <c r="H134" s="27">
         <v>2580.3927141005952</v>
       </c>
-      <c r="I134" s="28">
+      <c r="I134" s="27">
         <v>3851.2025398042738</v>
       </c>
-      <c r="J134" s="28">
+      <c r="J134" s="27">
         <v>6280.178458280111</v>
       </c>
-      <c r="K134" s="29">
+      <c r="K134" s="28">
         <v>2098.27805142226</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B135" s="1">
@@ -5627,63 +5627,63 @@
       <c r="C135" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D135" s="22">
+      <c r="D135" s="21">
         <v>1281.9853024242709</v>
       </c>
-      <c r="E135" s="23">
+      <c r="E135" s="22">
         <v>435.69544068191601</v>
       </c>
-      <c r="F135" s="28">
+      <c r="F135" s="27">
         <v>76.865365604049302</v>
       </c>
-      <c r="G135" s="28">
+      <c r="G135" s="27">
         <v>1067.0564054525059</v>
       </c>
-      <c r="H135" s="28">
+      <c r="H135" s="27">
         <v>1175.8437171540611</v>
       </c>
-      <c r="I135" s="28">
+      <c r="I135" s="27">
         <v>1503.226540044401</v>
       </c>
-      <c r="J135" s="28">
+      <c r="J135" s="27">
         <v>2553.772807605797</v>
       </c>
-      <c r="K135" s="29">
+      <c r="K135" s="28">
         <v>1199.912070941921</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B136" s="14">
+      <c r="B136" s="13">
         <v>27</v>
       </c>
-      <c r="C136" s="14" t="s">
+      <c r="C136" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D136" s="24">
+      <c r="D136" s="23">
         <v>400.65535377089913</v>
       </c>
-      <c r="E136" s="25">
+      <c r="E136" s="24">
         <v>92.758229945633431</v>
       </c>
-      <c r="F136" s="30">
+      <c r="F136" s="29">
         <v>242.13607549870969</v>
       </c>
-      <c r="G136" s="30">
+      <c r="G136" s="29">
         <v>321.69813003931131</v>
       </c>
-      <c r="H136" s="30">
+      <c r="H136" s="29">
         <v>342.33249464759359</v>
       </c>
-      <c r="I136" s="30">
+      <c r="I136" s="29">
         <v>499.74312017220871</v>
       </c>
-      <c r="J136" s="30">
+      <c r="J136" s="29">
         <v>559.67527736947113</v>
       </c>
-      <c r="K136" s="31">
+      <c r="K136" s="30">
         <v>390.33580961281172</v>
       </c>
     </row>
@@ -5691,6 +5691,18 @@
   <autoFilter ref="A1:K136" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="D2:K6">
     <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:K11">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5713,8 +5725,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D17:K21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D22:K26">
     <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:K31">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5737,8 +5773,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D37:K41">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D42:K46">
     <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:K51">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5761,8 +5821,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D57:K61">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D62:K66">
     <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67:K71">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5785,8 +5869,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D77:K81">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D82:K86">
     <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:K91">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5809,8 +5917,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D97:K101">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D102:K106">
     <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107:K111">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5833,8 +5965,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D122:K126">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="D117:K121">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5845,8 +5977,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D132:K136">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="D122:K126">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5869,140 +6001,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D97:K101">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D77:K81">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87:K91">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67:K71">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:K61">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:K51">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:K31">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:K41">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:K21">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:K11">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107:K111">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D117:K121">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D132:K136">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6029,36 +6029,36 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
